--- a/dictionaries/core/2_3/2_3_non_rep.xlsx
+++ b/dictionaries/core/2_3/2_3_non_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sidohaakma/Documents/Development/Visual/ds-dictionaries/dictionaries/core/2_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\projects\lifecycle\ds-dictionaries\dictionaries\core\2_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F5362F-3488-7B41-8533-E08438716B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC306302-A217-4677-9300-9E72702A48C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31620" yWindow="-5180" windowWidth="25360" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1463,54 +1463,6 @@
     <t>pm25abs average value (extrapolated back in time using ratio method) during pregnancy</t>
   </si>
   <si>
-    <t>pm25cu value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm25fe value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm25k value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm25ni value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm25s value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm25si value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm25v value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm25zn value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10cu value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10fe value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10k value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10ni value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10s value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10si value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10v value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
-    <t>pm10zn value (extrapolated back in time using ratio method) at pregnancy</t>
-  </si>
-  <si>
     <t>population density at pregnancy</t>
   </si>
   <si>
@@ -2601,6 +2553,54 @@
   </si>
   <si>
     <t>genxxi</t>
+  </si>
+  <si>
+    <t>pm25cu value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm25fe value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm25k value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm25ni value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm25s value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm25si value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm25v value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm25zn value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10cu value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10fe value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10k value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10ni value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10s value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10si value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10v value at pregnancy</t>
+  </si>
+  <si>
+    <t>pm10zn value at pregnancy</t>
   </si>
 </sst>
 </file>
@@ -3050,20 +3050,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D329"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="D122" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="197.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="23.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="197.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3091,31 +3091,31 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4669,9 +4669,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>313</v>
@@ -4683,7 +4683,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
@@ -4848,10 +4848,10 @@
         <v>328</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -4862,10 +4862,10 @@
         <v>328</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
@@ -4876,10 +4876,10 @@
         <v>328</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4890,10 +4890,10 @@
         <v>328</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
@@ -4904,10 +4904,10 @@
         <v>328</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
@@ -4918,10 +4918,10 @@
         <v>328</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -4932,10 +4932,10 @@
         <v>328</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -4946,10 +4946,10 @@
         <v>328</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
@@ -4960,10 +4960,10 @@
         <v>328</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
@@ -4974,10 +4974,10 @@
         <v>328</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4988,10 +4988,10 @@
         <v>328</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
@@ -5002,10 +5002,10 @@
         <v>328</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
@@ -5016,10 +5016,10 @@
         <v>328</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
@@ -5030,10 +5030,10 @@
         <v>328</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
@@ -5044,10 +5044,10 @@
         <v>328</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
@@ -5058,10 +5058,10 @@
         <v>328</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
@@ -5072,10 +5072,10 @@
         <v>329</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
@@ -5086,10 +5086,10 @@
         <v>330</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
@@ -5100,10 +5100,10 @@
         <v>330</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -5114,10 +5114,10 @@
         <v>331</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -5128,10 +5128,10 @@
         <v>331</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -5142,10 +5142,10 @@
         <v>332</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -5156,10 +5156,10 @@
         <v>332</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
@@ -5170,10 +5170,10 @@
         <v>332</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
@@ -5184,10 +5184,10 @@
         <v>331</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
@@ -5198,10 +5198,10 @@
         <v>331</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
@@ -5212,10 +5212,10 @@
         <v>331</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
@@ -5226,10 +5226,10 @@
         <v>331</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
@@ -5240,10 +5240,10 @@
         <v>324</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
@@ -5254,10 +5254,10 @@
         <v>324</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
@@ -5268,10 +5268,10 @@
         <v>316</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
@@ -5282,10 +5282,10 @@
         <v>333</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
@@ -5296,10 +5296,10 @@
         <v>333</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
@@ -5310,10 +5310,10 @@
         <v>333</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
@@ -5324,10 +5324,10 @@
         <v>333</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
@@ -5338,10 +5338,10 @@
         <v>333</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
@@ -5352,10 +5352,10 @@
         <v>333</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
@@ -5366,10 +5366,10 @@
         <v>333</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
@@ -5380,10 +5380,10 @@
         <v>333</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
@@ -5394,10 +5394,10 @@
         <v>333</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
@@ -5408,10 +5408,10 @@
         <v>333</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -5422,10 +5422,10 @@
         <v>333</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -5436,10 +5436,10 @@
         <v>333</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
@@ -5450,10 +5450,10 @@
         <v>334</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
@@ -5464,10 +5464,10 @@
         <v>334</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
@@ -5478,10 +5478,10 @@
         <v>335</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
@@ -5492,10 +5492,10 @@
         <v>335</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
@@ -5506,10 +5506,10 @@
         <v>316</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -5520,10 +5520,10 @@
         <v>316</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
@@ -5534,10 +5534,10 @@
         <v>336</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
@@ -5548,10 +5548,10 @@
         <v>336</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -5562,10 +5562,10 @@
         <v>336</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
@@ -5576,10 +5576,10 @@
         <v>337</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
@@ -5590,10 +5590,10 @@
         <v>337</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -5604,10 +5604,10 @@
         <v>316</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
@@ -5618,10 +5618,10 @@
         <v>316</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -5632,10 +5632,10 @@
         <v>334</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
@@ -5646,10 +5646,10 @@
         <v>316</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
@@ -5660,10 +5660,10 @@
         <v>316</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
@@ -5674,10 +5674,10 @@
         <v>338</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
@@ -5688,10 +5688,10 @@
         <v>339</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -5702,10 +5702,10 @@
         <v>339</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
@@ -5716,10 +5716,10 @@
         <v>340</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
@@ -5730,10 +5730,10 @@
         <v>331</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -5744,10 +5744,10 @@
         <v>331</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>192</v>
       </c>
@@ -5758,10 +5758,10 @@
         <v>341</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -5772,10 +5772,10 @@
         <v>341</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -5786,10 +5786,10 @@
         <v>341</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
@@ -5800,10 +5800,10 @@
         <v>333</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>196</v>
       </c>
@@ -5814,10 +5814,10 @@
         <v>333</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -5828,10 +5828,10 @@
         <v>333</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -5842,10 +5842,10 @@
         <v>342</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -5856,10 +5856,10 @@
         <v>342</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -5870,10 +5870,10 @@
         <v>342</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -5884,12 +5884,12 @@
         <v>341</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>314</v>
@@ -5898,10 +5898,10 @@
         <v>334</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>202</v>
       </c>
@@ -5912,10 +5912,10 @@
         <v>343</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>203</v>
       </c>
@@ -5926,10 +5926,10 @@
         <v>343</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>204</v>
       </c>
@@ -5940,10 +5940,10 @@
         <v>343</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>205</v>
       </c>
@@ -5954,10 +5954,10 @@
         <v>343</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>206</v>
       </c>
@@ -5968,10 +5968,10 @@
         <v>343</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>207</v>
       </c>
@@ -5982,10 +5982,10 @@
         <v>343</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>208</v>
       </c>
@@ -5996,10 +5996,10 @@
         <v>343</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>209</v>
       </c>
@@ -6010,10 +6010,10 @@
         <v>343</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>210</v>
       </c>
@@ -6024,10 +6024,10 @@
         <v>343</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>211</v>
       </c>
@@ -6038,10 +6038,10 @@
         <v>343</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>212</v>
       </c>
@@ -6052,10 +6052,10 @@
         <v>343</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>213</v>
       </c>
@@ -6066,10 +6066,10 @@
         <v>343</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>214</v>
       </c>
@@ -6080,10 +6080,10 @@
         <v>343</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>215</v>
       </c>
@@ -6094,10 +6094,10 @@
         <v>343</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -6108,10 +6108,10 @@
         <v>343</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>217</v>
       </c>
@@ -6122,10 +6122,10 @@
         <v>343</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>218</v>
       </c>
@@ -6136,10 +6136,10 @@
         <v>343</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -6150,10 +6150,10 @@
         <v>343</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>220</v>
       </c>
@@ -6164,10 +6164,10 @@
         <v>316</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>221</v>
       </c>
@@ -6178,10 +6178,10 @@
         <v>344</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>222</v>
       </c>
@@ -6192,10 +6192,10 @@
         <v>343</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>223</v>
       </c>
@@ -6206,10 +6206,10 @@
         <v>343</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>224</v>
       </c>
@@ -6220,10 +6220,10 @@
         <v>343</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>225</v>
       </c>
@@ -6234,10 +6234,10 @@
         <v>343</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>226</v>
       </c>
@@ -6248,10 +6248,10 @@
         <v>343</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>227</v>
       </c>
@@ -6262,10 +6262,10 @@
         <v>343</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>228</v>
       </c>
@@ -6276,10 +6276,10 @@
         <v>343</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -6290,10 +6290,10 @@
         <v>343</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -6304,10 +6304,10 @@
         <v>343</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>231</v>
       </c>
@@ -6318,10 +6318,10 @@
         <v>343</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -6332,10 +6332,10 @@
         <v>343</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -6346,10 +6346,10 @@
         <v>343</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>234</v>
       </c>
@@ -6360,10 +6360,10 @@
         <v>343</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>235</v>
       </c>
@@ -6374,10 +6374,10 @@
         <v>343</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>236</v>
       </c>
@@ -6388,10 +6388,10 @@
         <v>343</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>237</v>
       </c>
@@ -6402,10 +6402,10 @@
         <v>343</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>238</v>
       </c>
@@ -6416,10 +6416,10 @@
         <v>343</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>239</v>
       </c>
@@ -6430,10 +6430,10 @@
         <v>343</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>240</v>
       </c>
@@ -6444,10 +6444,10 @@
         <v>316</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>241</v>
       </c>
@@ -6458,10 +6458,10 @@
         <v>317</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -6472,10 +6472,10 @@
         <v>343</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>243</v>
       </c>
@@ -6486,10 +6486,10 @@
         <v>343</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -6500,10 +6500,10 @@
         <v>343</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>245</v>
       </c>
@@ -6514,10 +6514,10 @@
         <v>343</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>246</v>
       </c>
@@ -6528,10 +6528,10 @@
         <v>343</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>247</v>
       </c>
@@ -6542,10 +6542,10 @@
         <v>343</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>248</v>
       </c>
@@ -6556,10 +6556,10 @@
         <v>343</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>249</v>
       </c>
@@ -6570,10 +6570,10 @@
         <v>343</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>250</v>
       </c>
@@ -6584,10 +6584,10 @@
         <v>343</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>251</v>
       </c>
@@ -6598,10 +6598,10 @@
         <v>343</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>252</v>
       </c>
@@ -6612,10 +6612,10 @@
         <v>343</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>253</v>
       </c>
@@ -6626,10 +6626,10 @@
         <v>343</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>254</v>
       </c>
@@ -6640,10 +6640,10 @@
         <v>343</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>255</v>
       </c>
@@ -6654,10 +6654,10 @@
         <v>343</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>256</v>
       </c>
@@ -6668,10 +6668,10 @@
         <v>343</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>257</v>
       </c>
@@ -6682,10 +6682,10 @@
         <v>343</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>258</v>
       </c>
@@ -6696,10 +6696,10 @@
         <v>343</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>259</v>
       </c>
@@ -6710,10 +6710,10 @@
         <v>343</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>260</v>
       </c>
@@ -6724,10 +6724,10 @@
         <v>316</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>261</v>
       </c>
@@ -6738,10 +6738,10 @@
         <v>317</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>262</v>
       </c>
@@ -6752,10 +6752,10 @@
         <v>345</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>263</v>
       </c>
@@ -6766,10 +6766,10 @@
         <v>346</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>264</v>
       </c>
@@ -6780,10 +6780,10 @@
         <v>347</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>265</v>
       </c>
@@ -6794,10 +6794,10 @@
         <v>348</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>266</v>
       </c>
@@ -6808,10 +6808,10 @@
         <v>348</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>267</v>
       </c>
@@ -6822,10 +6822,10 @@
         <v>348</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>268</v>
       </c>
@@ -6836,10 +6836,10 @@
         <v>346</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>269</v>
       </c>
@@ -6850,10 +6850,10 @@
         <v>347</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>270</v>
       </c>
@@ -6864,10 +6864,10 @@
         <v>346</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>271</v>
       </c>
@@ -6878,10 +6878,10 @@
         <v>347</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>272</v>
       </c>
@@ -6892,10 +6892,10 @@
         <v>349</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>273</v>
       </c>
@@ -6906,10 +6906,10 @@
         <v>345</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>274</v>
       </c>
@@ -6920,10 +6920,10 @@
         <v>346</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>275</v>
       </c>
@@ -6934,10 +6934,10 @@
         <v>347</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>276</v>
       </c>
@@ -6948,10 +6948,10 @@
         <v>348</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>277</v>
       </c>
@@ -6962,10 +6962,10 @@
         <v>348</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>278</v>
       </c>
@@ -6976,10 +6976,10 @@
         <v>348</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>279</v>
       </c>
@@ -6990,10 +6990,10 @@
         <v>346</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>280</v>
       </c>
@@ -7004,10 +7004,10 @@
         <v>347</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>281</v>
       </c>
@@ -7018,10 +7018,10 @@
         <v>346</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>282</v>
       </c>
@@ -7032,10 +7032,10 @@
         <v>347</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>283</v>
       </c>
@@ -7046,10 +7046,10 @@
         <v>349</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>284</v>
       </c>
@@ -7060,10 +7060,10 @@
         <v>345</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>285</v>
       </c>
@@ -7074,10 +7074,10 @@
         <v>346</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>286</v>
       </c>
@@ -7088,10 +7088,10 @@
         <v>347</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>287</v>
       </c>
@@ -7102,10 +7102,10 @@
         <v>348</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>288</v>
       </c>
@@ -7116,10 +7116,10 @@
         <v>348</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>289</v>
       </c>
@@ -7130,10 +7130,10 @@
         <v>348</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>290</v>
       </c>
@@ -7144,10 +7144,10 @@
         <v>346</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>291</v>
       </c>
@@ -7158,10 +7158,10 @@
         <v>347</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>292</v>
       </c>
@@ -7172,10 +7172,10 @@
         <v>346</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>293</v>
       </c>
@@ -7186,10 +7186,10 @@
         <v>347</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>294</v>
       </c>
@@ -7200,10 +7200,10 @@
         <v>349</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>295</v>
       </c>
@@ -7214,10 +7214,10 @@
         <v>316</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>296</v>
       </c>
@@ -7228,10 +7228,10 @@
         <v>316</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>297</v>
       </c>
@@ -7242,10 +7242,10 @@
         <v>350</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>298</v>
       </c>
@@ -7256,10 +7256,10 @@
         <v>350</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>299</v>
       </c>
@@ -7270,10 +7270,10 @@
         <v>350</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>300</v>
       </c>
@@ -7284,10 +7284,10 @@
         <v>351</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>301</v>
       </c>
@@ -7298,10 +7298,10 @@
         <v>351</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>302</v>
       </c>
@@ -7312,10 +7312,10 @@
         <v>350</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>303</v>
       </c>
@@ -7326,10 +7326,10 @@
         <v>350</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>304</v>
       </c>
@@ -7340,10 +7340,10 @@
         <v>350</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>305</v>
       </c>
@@ -7354,10 +7354,10 @@
         <v>350</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>306</v>
       </c>
@@ -7368,10 +7368,10 @@
         <v>351</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>307</v>
       </c>
@@ -7382,10 +7382,10 @@
         <v>351</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>308</v>
       </c>
@@ -7396,10 +7396,10 @@
         <v>350</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>309</v>
       </c>
@@ -7410,10 +7410,10 @@
         <v>316</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>310</v>
       </c>
@@ -7424,10 +7424,10 @@
         <v>316</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>311</v>
       </c>
@@ -7438,10 +7438,10 @@
         <v>316</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>104</v>
       </c>
@@ -7455,9 +7455,9 @@
         <v>456</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>313</v>
@@ -7466,26 +7466,26 @@
         <v>316</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>313</v>
@@ -7494,26 +7494,26 @@
         <v>316</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>313</v>
@@ -7522,12 +7522,12 @@
         <v>316</v>
       </c>
       <c r="D319" s="8" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>313</v>
@@ -7536,12 +7536,12 @@
         <v>316</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>313</v>
@@ -7550,12 +7550,12 @@
         <v>316</v>
       </c>
       <c r="D321" s="7" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>313</v>
@@ -7564,12 +7564,12 @@
         <v>316</v>
       </c>
       <c r="D322" s="7" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>313</v>
@@ -7578,12 +7578,12 @@
         <v>316</v>
       </c>
       <c r="D323" s="7" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>313</v>
@@ -7592,12 +7592,12 @@
         <v>316</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>313</v>
@@ -7606,12 +7606,12 @@
         <v>316</v>
       </c>
       <c r="D325" s="7" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>313</v>
@@ -7620,12 +7620,12 @@
         <v>316</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>313</v>
@@ -7634,12 +7634,12 @@
         <v>316</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>313</v>
@@ -7648,12 +7648,12 @@
         <v>316</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>313</v>
@@ -7662,7 +7662,7 @@
         <v>316</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -7677,35 +7677,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D336"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="23.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -7716,10 +7716,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -7730,10 +7730,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -7744,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -7772,10 +7772,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7800,10 +7800,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -7814,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -7828,10 +7828,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -7842,10 +7842,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -7856,10 +7856,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -7870,10 +7870,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -7884,10 +7884,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -7898,10 +7898,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -7912,10 +7912,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -7926,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -7954,10 +7954,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -7968,10 +7968,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -7982,10 +7982,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -8010,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -8024,10 +8024,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -8038,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -8080,10 +8080,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -8094,10 +8094,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -8108,10 +8108,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -8122,10 +8122,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -8150,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -8164,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -8178,10 +8178,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -8192,10 +8192,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -8206,10 +8206,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -8220,10 +8220,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -8234,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -8248,10 +8248,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -8262,10 +8262,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -8276,10 +8276,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -8290,10 +8290,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -8318,10 +8318,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -8332,10 +8332,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -8346,10 +8346,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>9</v>
       </c>
@@ -8360,10 +8360,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
@@ -8374,10 +8374,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -8388,10 +8388,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -8402,10 +8402,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -8416,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
@@ -8430,10 +8430,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>11</v>
       </c>
@@ -8444,10 +8444,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
@@ -8458,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>14</v>
       </c>
@@ -8472,10 +8472,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>14</v>
       </c>
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -8500,10 +8500,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -8514,10 +8514,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>20</v>
       </c>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
@@ -8542,10 +8542,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>23</v>
       </c>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>23</v>
       </c>
@@ -8570,10 +8570,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>23</v>
       </c>
@@ -8584,10 +8584,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
@@ -8598,10 +8598,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>25</v>
       </c>
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>25</v>
       </c>
@@ -8626,10 +8626,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>26</v>
       </c>
@@ -8640,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>26</v>
       </c>
@@ -8654,10 +8654,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>26</v>
       </c>
@@ -8668,10 +8668,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>26</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>26</v>
       </c>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>27</v>
       </c>
@@ -8724,10 +8724,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>28</v>
       </c>
@@ -8738,10 +8738,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>28</v>
       </c>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>29</v>
       </c>
@@ -8766,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>29</v>
       </c>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>30</v>
       </c>
@@ -8794,10 +8794,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>30</v>
       </c>
@@ -8808,10 +8808,10 @@
         <v>0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>31</v>
       </c>
@@ -8822,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>31</v>
       </c>
@@ -8836,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>32</v>
       </c>
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>32</v>
       </c>
@@ -8864,10 +8864,10 @@
         <v>0</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>33</v>
       </c>
@@ -8878,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>33</v>
       </c>
@@ -8892,10 +8892,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>34</v>
       </c>
@@ -8906,10 +8906,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>34</v>
       </c>
@@ -8920,10 +8920,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>35</v>
       </c>
@@ -8934,10 +8934,10 @@
         <v>0</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>35</v>
       </c>
@@ -8948,10 +8948,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>36</v>
       </c>
@@ -8962,10 +8962,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>36</v>
       </c>
@@ -8976,10 +8976,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>37</v>
       </c>
@@ -8990,10 +8990,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>37</v>
       </c>
@@ -9004,10 +9004,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>37</v>
       </c>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>38</v>
       </c>
@@ -9032,10 +9032,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>38</v>
       </c>
@@ -9046,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>39</v>
       </c>
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>39</v>
       </c>
@@ -9074,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>39</v>
       </c>
@@ -9088,10 +9088,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>40</v>
       </c>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>40</v>
       </c>
@@ -9116,10 +9116,10 @@
         <v>0</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>41</v>
       </c>
@@ -9130,10 +9130,10 @@
         <v>0</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>41</v>
       </c>
@@ -9144,10 +9144,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>41</v>
       </c>
@@ -9158,10 +9158,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>41</v>
       </c>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>41</v>
       </c>
@@ -9186,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>42</v>
       </c>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>42</v>
       </c>
@@ -9214,10 +9214,10 @@
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>43</v>
       </c>
@@ -9228,10 +9228,10 @@
         <v>0</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>43</v>
       </c>
@@ -9242,10 +9242,10 @@
         <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>43</v>
       </c>
@@ -9256,10 +9256,10 @@
         <v>0</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>43</v>
       </c>
@@ -9270,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>44</v>
       </c>
@@ -9284,10 +9284,10 @@
         <v>0</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>44</v>
       </c>
@@ -9298,10 +9298,10 @@
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>45</v>
       </c>
@@ -9312,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>45</v>
       </c>
@@ -9326,10 +9326,10 @@
         <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>46</v>
       </c>
@@ -9340,10 +9340,10 @@
         <v>0</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>46</v>
       </c>
@@ -9354,10 +9354,10 @@
         <v>0</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>47</v>
       </c>
@@ -9368,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>47</v>
       </c>
@@ -9382,10 +9382,10 @@
         <v>0</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>47</v>
       </c>
@@ -9396,10 +9396,10 @@
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>47</v>
       </c>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>47</v>
       </c>
@@ -9424,10 +9424,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>48</v>
       </c>
@@ -9438,10 +9438,10 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>48</v>
       </c>
@@ -9452,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>49</v>
       </c>
@@ -9466,10 +9466,10 @@
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>49</v>
       </c>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>50</v>
       </c>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>50</v>
       </c>
@@ -9508,10 +9508,10 @@
         <v>0</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>51</v>
       </c>
@@ -9522,10 +9522,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>51</v>
       </c>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>51</v>
       </c>
@@ -9550,10 +9550,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>51</v>
       </c>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>51</v>
       </c>
@@ -9578,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>51</v>
       </c>
@@ -9592,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>52</v>
       </c>
@@ -9606,10 +9606,10 @@
         <v>0</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>52</v>
       </c>
@@ -9620,10 +9620,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>52</v>
       </c>
@@ -9634,10 +9634,10 @@
         <v>0</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>52</v>
       </c>
@@ -9648,10 +9648,10 @@
         <v>0</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>52</v>
       </c>
@@ -9662,10 +9662,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>53</v>
       </c>
@@ -9676,10 +9676,10 @@
         <v>0</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>53</v>
       </c>
@@ -9690,10 +9690,10 @@
         <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>54</v>
       </c>
@@ -9704,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>54</v>
       </c>
@@ -9718,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>54</v>
       </c>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>55</v>
       </c>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>55</v>
       </c>
@@ -9760,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>55</v>
       </c>
@@ -9774,10 +9774,10 @@
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>55</v>
       </c>
@@ -9788,10 +9788,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>56</v>
       </c>
@@ -9802,10 +9802,10 @@
         <v>0</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>56</v>
       </c>
@@ -9816,10 +9816,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>56</v>
       </c>
@@ -9830,10 +9830,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>57</v>
       </c>
@@ -9844,10 +9844,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>57</v>
       </c>
@@ -9858,10 +9858,10 @@
         <v>0</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>57</v>
       </c>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>58</v>
       </c>
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>58</v>
       </c>
@@ -9900,10 +9900,10 @@
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>58</v>
       </c>
@@ -9914,10 +9914,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>59</v>
       </c>
@@ -9928,10 +9928,10 @@
         <v>0</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>59</v>
       </c>
@@ -9942,10 +9942,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>59</v>
       </c>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>59</v>
       </c>
@@ -9970,10 +9970,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>63</v>
       </c>
@@ -9984,10 +9984,10 @@
         <v>0</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>63</v>
       </c>
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>65</v>
       </c>
@@ -10012,10 +10012,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>65</v>
       </c>
@@ -10026,10 +10026,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>65</v>
       </c>
@@ -10040,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>65</v>
       </c>
@@ -10054,10 +10054,10 @@
         <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>67</v>
       </c>
@@ -10068,10 +10068,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>67</v>
       </c>
@@ -10082,10 +10082,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>67</v>
       </c>
@@ -10096,10 +10096,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>68</v>
       </c>
@@ -10110,10 +10110,10 @@
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>68</v>
       </c>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>68</v>
       </c>
@@ -10138,10 +10138,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>68</v>
       </c>
@@ -10152,10 +10152,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>70</v>
       </c>
@@ -10166,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>70</v>
       </c>
@@ -10180,10 +10180,10 @@
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>70</v>
       </c>
@@ -10194,10 +10194,10 @@
         <v>0</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>71</v>
       </c>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>71</v>
       </c>
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>71</v>
       </c>
@@ -10236,10 +10236,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>71</v>
       </c>
@@ -10250,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>72</v>
       </c>
@@ -10264,10 +10264,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>72</v>
       </c>
@@ -10278,10 +10278,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>72</v>
       </c>
@@ -10292,10 +10292,10 @@
         <v>0</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>72</v>
       </c>
@@ -10306,10 +10306,10 @@
         <v>0</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>73</v>
       </c>
@@ -10320,10 +10320,10 @@
         <v>0</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>73</v>
       </c>
@@ -10334,10 +10334,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>74</v>
       </c>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>74</v>
       </c>
@@ -10362,10 +10362,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>75</v>
       </c>
@@ -10376,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>75</v>
       </c>
@@ -10390,10 +10390,10 @@
         <v>0</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>76</v>
       </c>
@@ -10404,10 +10404,10 @@
         <v>0</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>76</v>
       </c>
@@ -10418,10 +10418,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>76</v>
       </c>
@@ -10432,10 +10432,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>77</v>
       </c>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>77</v>
       </c>
@@ -10460,10 +10460,10 @@
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>77</v>
       </c>
@@ -10474,10 +10474,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>77</v>
       </c>
@@ -10488,10 +10488,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>81</v>
       </c>
@@ -10502,10 +10502,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>81</v>
       </c>
@@ -10516,10 +10516,10 @@
         <v>0</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>82</v>
       </c>
@@ -10530,10 +10530,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>82</v>
       </c>
@@ -10544,10 +10544,10 @@
         <v>0</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>83</v>
       </c>
@@ -10558,10 +10558,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>83</v>
       </c>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>83</v>
       </c>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>91</v>
       </c>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>91</v>
       </c>
@@ -10614,10 +10614,10 @@
         <v>0</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>91</v>
       </c>
@@ -10628,10 +10628,10 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>93</v>
       </c>
@@ -10642,10 +10642,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>93</v>
       </c>
@@ -10656,10 +10656,10 @@
         <v>0</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>94</v>
       </c>
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>94</v>
       </c>
@@ -10684,10 +10684,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>95</v>
       </c>
@@ -10698,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>95</v>
       </c>
@@ -10712,10 +10712,10 @@
         <v>0</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>96</v>
       </c>
@@ -10726,10 +10726,10 @@
         <v>0</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>96</v>
       </c>
@@ -10740,10 +10740,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>96</v>
       </c>
@@ -10754,10 +10754,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>96</v>
       </c>
@@ -10768,10 +10768,10 @@
         <v>0</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>96</v>
       </c>
@@ -10782,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>97</v>
       </c>
@@ -10796,10 +10796,10 @@
         <v>0</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>97</v>
       </c>
@@ -10810,10 +10810,10 @@
         <v>0</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>101</v>
       </c>
@@ -10824,10 +10824,10 @@
         <v>0</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>101</v>
       </c>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>115</v>
       </c>
@@ -10852,10 +10852,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>115</v>
       </c>
@@ -10866,10 +10866,10 @@
         <v>0</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>115</v>
       </c>
@@ -10880,10 +10880,10 @@
         <v>0</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>115</v>
       </c>
@@ -10894,10 +10894,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>115</v>
       </c>
@@ -10908,12 +10908,12 @@
         <v>0</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B231" s="3">
         <v>1</v>
@@ -10922,12 +10922,12 @@
         <v>0</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B232" s="3">
         <v>2</v>
@@ -10936,12 +10936,12 @@
         <v>0</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B233" s="3">
         <v>3</v>
@@ -10950,12 +10950,12 @@
         <v>0</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B234" s="3">
         <v>4</v>
@@ -10964,12 +10964,12 @@
         <v>0</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B235" s="3">
         <v>5</v>
@@ -10978,10 +10978,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>116</v>
       </c>
@@ -10992,10 +10992,10 @@
         <v>0</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>116</v>
       </c>
@@ -11006,10 +11006,10 @@
         <v>0</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>116</v>
       </c>
@@ -11020,10 +11020,10 @@
         <v>0</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>116</v>
       </c>
@@ -11034,10 +11034,10 @@
         <v>0</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>116</v>
       </c>
@@ -11048,10 +11048,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>116</v>
       </c>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>116</v>
       </c>
@@ -11076,10 +11076,10 @@
         <v>0</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>116</v>
       </c>
@@ -11090,10 +11090,10 @@
         <v>0</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>116</v>
       </c>
@@ -11104,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>116</v>
       </c>
@@ -11118,10 +11118,10 @@
         <v>0</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>117</v>
       </c>
@@ -11132,10 +11132,10 @@
         <v>0</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>117</v>
       </c>
@@ -11146,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>117</v>
       </c>
@@ -11160,10 +11160,10 @@
         <v>0</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>117</v>
       </c>
@@ -11174,10 +11174,10 @@
         <v>0</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>117</v>
       </c>
@@ -11188,10 +11188,10 @@
         <v>0</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>117</v>
       </c>
@@ -11202,10 +11202,10 @@
         <v>0</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>117</v>
       </c>
@@ -11216,10 +11216,10 @@
         <v>0</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>117</v>
       </c>
@@ -11230,10 +11230,10 @@
         <v>0</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>117</v>
       </c>
@@ -11244,10 +11244,10 @@
         <v>0</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>117</v>
       </c>
@@ -11258,10 +11258,10 @@
         <v>0</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>120</v>
       </c>
@@ -11272,10 +11272,10 @@
         <v>0</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>120</v>
       </c>
@@ -11286,10 +11286,10 @@
         <v>0</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>120</v>
       </c>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>120</v>
       </c>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>120</v>
       </c>
@@ -11328,10 +11328,10 @@
         <v>0</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>120</v>
       </c>
@@ -11342,10 +11342,10 @@
         <v>0</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>120</v>
       </c>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>120</v>
       </c>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>120</v>
       </c>
@@ -11384,10 +11384,10 @@
         <v>0</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>120</v>
       </c>
@@ -11398,10 +11398,10 @@
         <v>0</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>120</v>
       </c>
@@ -11412,10 +11412,10 @@
         <v>0</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>120</v>
       </c>
@@ -11426,10 +11426,10 @@
         <v>0</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>120</v>
       </c>
@@ -11440,10 +11440,10 @@
         <v>0</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>120</v>
       </c>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>120</v>
       </c>
@@ -11468,10 +11468,10 @@
         <v>0</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>120</v>
       </c>
@@ -11482,10 +11482,10 @@
         <v>0</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>174</v>
       </c>
@@ -11496,10 +11496,10 @@
         <v>0</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>174</v>
       </c>
@@ -11510,10 +11510,10 @@
         <v>0</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>175</v>
       </c>
@@ -11524,10 +11524,10 @@
         <v>0</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>175</v>
       </c>
@@ -11538,10 +11538,10 @@
         <v>0</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>182</v>
       </c>
@@ -11552,10 +11552,10 @@
         <v>0</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>182</v>
       </c>
@@ -11566,10 +11566,10 @@
         <v>0</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>182</v>
       </c>
@@ -11580,10 +11580,10 @@
         <v>0</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>182</v>
       </c>
@@ -11594,10 +11594,10 @@
         <v>0</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>182</v>
       </c>
@@ -11608,10 +11608,10 @@
         <v>0</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>182</v>
       </c>
@@ -11622,10 +11622,10 @@
         <v>0</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>181</v>
       </c>
@@ -11636,10 +11636,10 @@
         <v>0</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>181</v>
       </c>
@@ -11650,10 +11650,10 @@
         <v>0</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>181</v>
       </c>
@@ -11664,10 +11664,10 @@
         <v>0</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>181</v>
       </c>
@@ -11678,10 +11678,10 @@
         <v>0</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>181</v>
       </c>
@@ -11692,10 +11692,10 @@
         <v>0</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>181</v>
       </c>
@@ -11706,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>184</v>
       </c>
@@ -11720,10 +11720,10 @@
         <v>0</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>184</v>
       </c>
@@ -11734,10 +11734,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>184</v>
       </c>
@@ -11748,10 +11748,10 @@
         <v>0</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>185</v>
       </c>
@@ -11762,10 +11762,10 @@
         <v>0</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>185</v>
       </c>
@@ -11776,10 +11776,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>185</v>
       </c>
@@ -11790,10 +11790,10 @@
         <v>0</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>185</v>
       </c>
@@ -11804,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>185</v>
       </c>
@@ -11818,10 +11818,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>220</v>
       </c>
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>220</v>
       </c>
@@ -11846,10 +11846,10 @@
         <v>0</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>220</v>
       </c>
@@ -11860,10 +11860,10 @@
         <v>0</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>240</v>
       </c>
@@ -11874,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>240</v>
       </c>
@@ -11888,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>240</v>
       </c>
@@ -11902,10 +11902,10 @@
         <v>0</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>260</v>
       </c>
@@ -11916,10 +11916,10 @@
         <v>0</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>260</v>
       </c>
@@ -11930,10 +11930,10 @@
         <v>0</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>260</v>
       </c>
@@ -11944,10 +11944,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>309</v>
       </c>
@@ -11958,10 +11958,10 @@
         <v>0</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>309</v>
       </c>
@@ -11972,10 +11972,10 @@
         <v>0</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>310</v>
       </c>
@@ -11986,10 +11986,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>310</v>
       </c>
@@ -12000,10 +12000,10 @@
         <v>0</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>311</v>
       </c>
@@ -12014,10 +12014,10 @@
         <v>0</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>311</v>
       </c>
@@ -12028,12 +12028,12 @@
         <v>0</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B311" s="3">
         <v>0</v>
@@ -12042,12 +12042,12 @@
         <v>0</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B312" s="5">
         <v>1</v>
@@ -12056,12 +12056,12 @@
         <v>0</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B313" s="5">
         <v>0</v>
@@ -12070,12 +12070,12 @@
         <v>0</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B314" s="5">
         <v>1</v>
@@ -12084,12 +12084,12 @@
         <v>0</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="B315" s="5">
         <v>0</v>
@@ -12098,12 +12098,12 @@
         <v>0</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="B316" s="5">
         <v>1</v>
@@ -12112,12 +12112,12 @@
         <v>0</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B317" s="5">
         <v>0</v>
@@ -12126,12 +12126,12 @@
         <v>0</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B318" s="5">
         <v>1</v>
@@ -12140,12 +12140,12 @@
         <v>0</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="B319" s="5">
         <v>0</v>
@@ -12154,12 +12154,12 @@
         <v>0</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="B320" s="5">
         <v>1</v>
@@ -12168,12 +12168,12 @@
         <v>0</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="B321" s="5">
         <v>0</v>
@@ -12182,12 +12182,12 @@
         <v>0</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="B322" s="5">
         <v>1</v>
@@ -12196,12 +12196,12 @@
         <v>0</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B323" s="5">
         <v>0</v>
@@ -12210,12 +12210,12 @@
         <v>0</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B324" s="5">
         <v>1</v>
@@ -12224,12 +12224,12 @@
         <v>0</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="B325" s="5">
         <v>0</v>
@@ -12238,12 +12238,12 @@
         <v>0</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="B326" s="5">
         <v>1</v>
@@ -12252,12 +12252,12 @@
         <v>0</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="B327" s="5">
         <v>0</v>
@@ -12266,12 +12266,12 @@
         <v>0</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="B328" s="5">
         <v>1</v>
@@ -12280,12 +12280,12 @@
         <v>0</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B329" s="5">
         <v>0</v>
@@ -12294,12 +12294,12 @@
         <v>0</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B330" s="5">
         <v>1</v>
@@ -12308,12 +12308,12 @@
         <v>0</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="B331" s="5">
         <v>0</v>
@@ -12322,12 +12322,12 @@
         <v>0</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="B332" s="5">
         <v>1</v>
@@ -12336,12 +12336,12 @@
         <v>0</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="B333" s="5">
         <v>0</v>
@@ -12350,12 +12350,12 @@
         <v>0</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="B334" s="5">
         <v>1</v>
@@ -12364,12 +12364,12 @@
         <v>0</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="B335" s="5">
         <v>0</v>
@@ -12378,12 +12378,12 @@
         <v>0</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="B336" s="5">
         <v>1</v>
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
